--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF04C26-72C1-41EF-B6B3-E3327E2701B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70575B1C-627A-4A86-B067-0124DB95958A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13620" yWindow="-3270" windowWidth="13740" windowHeight="21840" tabRatio="790" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="315">
   <si>
     <t>username</t>
   </si>
@@ -1335,6 +1335,212 @@
   </si>
   <si>
     <t>下载文件的时候，如果下载方式无法修改header以添加token，那么可以在链接参数中添加“%token%”参数，参数值就是权限接口返回的token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始执行数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportFaildFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含导入数据的文件，导入模板可以从接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为1时，只会模拟导入，不会真实地将数据导入到系统中。一般用于调试阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为1时，导入完成后会生成反馈文件，其中包含未导入的数据行，以及错误信息日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起导入时的异常信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起导入的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/start/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入进程查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/status{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用开始导入接口后返回的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interrupted</t>
+  </si>
+  <si>
+    <t>msgIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxMsgCount</t>
+  </si>
+  <si>
+    <t>为true时中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastInterval</t>
+  </si>
+  <si>
+    <t>传入参数的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次访问的时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新的一条信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failedRowsFileUUID</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在开始导入时传入exportFaildFile，并且导出完成时，生成用于下载反馈文件的uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑导入模板所用字段表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/dict/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldDictionary</t>
+  </si>
+  <si>
+    <t>字段字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/tmpls/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpls</t>
+  </si>
+  <si>
+    <t>模板对象数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前所有可用导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得导入模板数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/tmpl/{menuId}/{tmplId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmplId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板对象数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/save_tmpl/{menuId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（JSON）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是修改已有的模板，那么需要传入该值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入模板的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个对象数组，数组内的元素为导入字段的参数。对象元素的字段包括：
+id：如果是对已经存在的导入模板中的字段进行修改，那么需要传入；
+fieldId：字段的唯一标志，从字段选择器中获取；
+compositeId：字段所在的composite的唯一标识，从字段选择器中获取；
+fieldIndex：字段的索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载导入模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/import/t/download_tmpl/{tmplId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1917,7 +2123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,15 +2250,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,9 +2264,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2177,9 +2374,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2207,6 +2401,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2387,6 +2629,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2414,14 +2665,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2727,61 +2981,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
-      <c r="G3" s="99" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="G3" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="113" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="55"/>
+      <c r="E4" s="117"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="101"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="55"/>
+      <c r="E5" s="117"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="113"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="125"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2793,11 +3047,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="55"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="101"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2807,11 +3061,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="55"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="101"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2821,63 +3075,63 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="55"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="107"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="119"/>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="83" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2906,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F12133-6522-4FD6-BDD7-D45B2101BAE5}">
   <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:E53"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2920,32 +3174,32 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="47"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2956,58 +3210,58 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="160"/>
+      <c r="E10" s="175"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="132"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="176" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="162"/>
+      <c r="E11" s="177"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="118" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3021,7 +3275,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3033,7 +3287,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3045,7 +3299,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -3057,26 +3311,26 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="49" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="44" t="s">
         <v>173</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="49" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3100,133 +3354,134 @@
         <v>68</v>
       </c>
     </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="183" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="100" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="103" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="105"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="100" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="44"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="101"/>
-      <c r="C29" s="45" t="s">
+      <c r="B29" s="118"/>
+      <c r="C29" s="100" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="101"/>
-      <c r="C30" s="45" t="s">
+      <c r="B30" s="118"/>
+      <c r="C30" s="100" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="101"/>
-      <c r="C31" s="45" t="s">
+      <c r="B31" s="118"/>
+      <c r="C31" s="100" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="101"/>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="118"/>
+      <c r="C32" s="100" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="101"/>
-      <c r="C33" s="45" t="s">
+      <c r="B33" s="118"/>
+      <c r="C33" s="100" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="101"/>
-      <c r="C34" s="45" t="s">
+    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="139"/>
+      <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3243,97 +3498,97 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="110"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="122"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="136" t="s">
+      <c r="B38" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="84"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="81"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="159" t="s">
+      <c r="D39" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="160"/>
-      <c r="F39" s="84"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="81"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="106"/>
-      <c r="C40" s="45" t="s">
+      <c r="B40" s="118"/>
+      <c r="C40" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="117"/>
-      <c r="F40" s="84"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="81"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="118"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="84"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="81"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="44" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="84"/>
+      <c r="F42" s="81"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="106"/>
-      <c r="C43" s="45" t="s">
+      <c r="B43" s="118"/>
+      <c r="C43" s="44" t="s">
         <v>205</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E43" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="90"/>
+      <c r="F43" s="86"/>
     </row>
     <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="106"/>
-      <c r="C44" s="45" t="s">
+      <c r="B44" s="118"/>
+      <c r="C44" s="44" t="s">
         <v>241</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="90"/>
+      <c r="F44" s="86"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="106"/>
-      <c r="C45" s="45" t="s">
+      <c r="B45" s="118"/>
+      <c r="C45" s="44" t="s">
         <v>209</v>
       </c>
       <c r="D45" s="32" t="s">
@@ -3342,19 +3597,19 @@
       <c r="E45" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F45" s="84"/>
+      <c r="F45" s="81"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="125"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="126"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="138"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="106" t="s">
+      <c r="B47" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -3365,7 +3620,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="127"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
       </c>
@@ -3389,28 +3644,28 @@
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="152"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="164"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="165" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="155"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
+      <c r="E52" s="167"/>
     </row>
     <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="168" t="s">
+      <c r="B53" s="171" t="s">
         <v>262</v>
       </c>
-      <c r="C53" s="169"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="170"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="173"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
@@ -3436,11 +3691,11 @@
       <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="156" t="s">
+      <c r="C56" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="157"/>
-      <c r="E56" s="158"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="170"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
@@ -3450,20 +3705,20 @@
     </row>
     <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="150" t="s">
+      <c r="B59" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="152"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="164"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="153" t="s">
+      <c r="B60" s="165" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="155"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="167"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
@@ -3486,7 +3741,7 @@
       <c r="E62" s="27"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3500,7 +3755,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="106"/>
+      <c r="B64" s="118"/>
       <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
@@ -3512,7 +3767,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="130"/>
+      <c r="B65" s="142"/>
       <c r="C65" s="30" t="s">
         <v>67</v>
       </c>
@@ -3522,7 +3777,7 @@
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="130"/>
+      <c r="B66" s="142"/>
       <c r="C66" s="30" t="s">
         <v>58</v>
       </c>
@@ -3534,7 +3789,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="130"/>
+      <c r="B67" s="142"/>
       <c r="C67" s="30" t="s">
         <v>56</v>
       </c>
@@ -3546,7 +3801,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="130"/>
+      <c r="B68" s="142"/>
       <c r="C68" s="30" t="s">
         <v>57</v>
       </c>
@@ -3558,7 +3813,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="127"/>
+      <c r="B69" s="139"/>
       <c r="C69" s="15" t="s">
         <v>96</v>
       </c>
@@ -3609,21 +3864,665 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01CCA0E-2E7A-4B8E-9E4A-ABE08AE5322B}">
-  <dimension ref="A9:A36"/>
+  <dimension ref="B2:E73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="114" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="175"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="118"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="119"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="149"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="118"/>
+      <c r="C8" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="147" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="149"/>
+    </row>
+    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="118"/>
+      <c r="C9" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="147" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="149"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="96"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="97"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="118"/>
+      <c r="C12" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="139"/>
+      <c r="C13" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="174" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="175"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="118"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="119"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="147" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="149"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="118"/>
+      <c r="C21" s="100" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="147"/>
+      <c r="E21" s="149"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="118"/>
+      <c r="C22" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="147"/>
+      <c r="E22" s="149"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="99"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="143"/>
+      <c r="C25" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="143"/>
+      <c r="C26" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="143"/>
+      <c r="C27" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="143"/>
+      <c r="C28" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B29" s="143"/>
+      <c r="C29" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="143"/>
+      <c r="C30" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="143"/>
+      <c r="C31" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="143"/>
+      <c r="C32" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="185" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="156"/>
+      <c r="C33" s="186" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="187" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="120" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="122"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="175"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="118"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="119"/>
+    </row>
+    <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="188" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="120" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="122"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="116"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="175"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="118"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="119"/>
+    </row>
+    <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="188" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="120" t="s">
+        <v>299</v>
+      </c>
+      <c r="C50" s="121"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="122"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="175"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="144"/>
+      <c r="C53" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" s="176" t="s">
+        <v>302</v>
+      </c>
+      <c r="E53" s="177"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="118"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="119"/>
+    </row>
+    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="188" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="122"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="116"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="175"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="118"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="119"/>
+    </row>
+    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="118" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="188" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="118"/>
+      <c r="C63" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="188" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="118"/>
+      <c r="C64" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="188" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="184"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="101"/>
+    </row>
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="188" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="120" t="s">
+        <v>311</v>
+      </c>
+      <c r="C69" s="121"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="122"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C70" s="115"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="116"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="176" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="177"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="118"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
+      <c r="E72" s="119"/>
+    </row>
+    <row r="73" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="188" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3651,19 +4550,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="180"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="181" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -3671,19 +4570,19 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="167"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="120"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="142" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -3691,7 +4590,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="132"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -3703,7 +4602,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="142" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -3711,7 +4610,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="144"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -3747,36 +4646,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="107"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -3823,20 +4722,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -3845,19 +4744,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3871,8 +4770,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
-      <c r="C7" s="91" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="87" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -3883,7 +4782,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="106"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3895,13 +4794,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -3910,79 +4809,79 @@
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="101"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="55" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="101"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="56" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="101"/>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="87" t="s">
         <v>250</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="56" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="101"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="38" t="s">
         <v>114</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="101"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="38" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="101"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="54" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4022,20 +4921,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
@@ -4044,19 +4943,19 @@
       <c r="C4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="136"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4070,7 +4969,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -4082,13 +4981,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="125"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="126"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="138"/>
     </row>
     <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4097,61 +4996,61 @@
       <c r="D9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="65" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="127"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="64" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
@@ -4160,16 +5059,16 @@
       <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="124"/>
+      <c r="E16" s="136"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="125"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="126"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
@@ -4178,10 +5077,10 @@
       <c r="C18" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="66" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4226,20 +5125,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -4248,19 +5147,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4274,7 +5173,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -4286,13 +5185,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="135"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4306,31 +5205,31 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="106"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="38" t="s">
         <v>114</v>
       </c>
@@ -4342,7 +5241,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="38" t="s">
         <v>115</v>
       </c>
@@ -4354,35 +5253,35 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="38" t="s">
         <v>129</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="38" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="58" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="127"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="23" t="s">
@@ -4391,54 +5290,54 @@
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="110"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="142" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="129"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="131"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="132"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="120"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
@@ -4455,13 +5354,13 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="121"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="123"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -4470,16 +5369,16 @@
       <c r="D27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="58" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="127"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="23" t="s">
@@ -4534,68 +5433,68 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="148" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="118" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="137"/>
+      <c r="E4" s="149"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="149"/>
     </row>
     <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="106"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="137"/>
+      <c r="E6" s="149"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="137"/>
+      <c r="E7" s="149"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
@@ -4612,13 +5511,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="125"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="126"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="138"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -4627,275 +5526,275 @@
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="68" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="127"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="145" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="146" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="135"/>
+      <c r="E17" s="147"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="101"/>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="135"/>
+      <c r="E18" s="147"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="91" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="101"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="113"/>
+      <c r="C21" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="91" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="101"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="113"/>
+      <c r="C22" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="91" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="101"/>
-      <c r="C23" s="92" t="s">
+      <c r="B23" s="113"/>
+      <c r="C23" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="91" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="90" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
-      <c r="C26" s="92" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="92" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="101"/>
-      <c r="C27" s="92" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="93" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="72"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
     </row>
     <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="135"/>
+      <c r="E32" s="147"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="101"/>
-      <c r="C33" s="91" t="s">
+      <c r="B33" s="113"/>
+      <c r="C33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="138" t="s">
+      <c r="D33" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="138"/>
+      <c r="E33" s="150"/>
     </row>
     <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="101"/>
-      <c r="C34" s="91" t="s">
+      <c r="B34" s="113"/>
+      <c r="C34" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="150" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="138"/>
+      <c r="E34" s="150"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
     </row>
     <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E36" s="95" t="s">
+      <c r="E36" s="91" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="140"/>
-      <c r="C37" s="91" t="s">
+      <c r="B37" s="152"/>
+      <c r="C37" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="95" t="s">
+      <c r="E37" s="91" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="141"/>
-      <c r="C38" s="92" t="s">
+      <c r="B38" s="153"/>
+      <c r="C38" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="94" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C40" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="94" t="s">
+      <c r="E40" s="90" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4957,77 +5856,77 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="147" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="137"/>
+      <c r="E4" s="149"/>
     </row>
     <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="131"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="143"/>
+      <c r="C5" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="149"/>
     </row>
     <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="131"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="143"/>
+      <c r="C6" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="137"/>
+      <c r="E6" s="149"/>
     </row>
     <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="154" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="155"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="118"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="120"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="70" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -5035,116 +5934,116 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="131"/>
-      <c r="C10" s="78" t="s">
+      <c r="B10" s="143"/>
+      <c r="C10" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="76" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="131"/>
-      <c r="C11" s="78" t="s">
+      <c r="B11" s="143"/>
+      <c r="C11" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="78" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="131"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="143"/>
+      <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="79" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="125"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="126"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="138"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="74" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="127"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="64" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="148" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="147" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="137"/>
+      <c r="E20" s="149"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="120"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="70" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -5152,68 +6051,68 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="125"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="126"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="138"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>177</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="64" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="110"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="148" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="135" t="s">
+      <c r="D29" s="147" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="137"/>
+      <c r="E29" s="149"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="70" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
@@ -5221,27 +6120,27 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="125"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="126"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="138"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="77" t="s">
+      <c r="E33" s="74" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="144"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="15" t="s">
         <v>217</v>
       </c>
@@ -5300,113 +6199,113 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="132"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="144"/>
+      <c r="C5" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="129"/>
+      <c r="E5" s="141"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="120"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="72" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="120" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="117"/>
+      <c r="E12" s="129"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="132"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="129"/>
+      <c r="E13" s="141"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="145"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="146"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="158"/>
     </row>
     <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="32" t="s">
@@ -5417,125 +6316,125 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="64" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="110"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="117"/>
+      <c r="E22" s="129"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="132"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="144"/>
+      <c r="C23" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="129"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="145"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="146"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="158"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="60" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="131"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="44" t="s">
         <v>192</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="60" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="132"/>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="144"/>
+      <c r="C27" s="44" t="s">
         <v>191</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="76" t="s">
+      <c r="E27" s="73" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="120"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
     </row>
     <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="67" t="s">
+      <c r="E29" s="64" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5588,59 +6487,59 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="161"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="125"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="126"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="138"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -5655,36 +6554,36 @@
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="149"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="161"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
@@ -5701,13 +6600,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="125"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="126"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="138"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="118" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5721,7 +6620,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>

--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70575B1C-627A-4A86-B067-0124DB95958A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2A126A-8E3D-4BFF-9467-CF241F71EEE1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13620" yWindow="-3270" windowWidth="13740" windowHeight="21840" tabRatio="790" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="331">
   <si>
     <t>username</t>
   </si>
@@ -465,58 +465,6 @@
   </si>
   <si>
     <t>/api2/auth/token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id:(Number)标识
-title:(String)一级菜单名称
-order:(Number)顺序，返回的数组已经排好顺序
-authorities:(String)允许访问该菜单的用户权限
-level2s:(Array)二级菜单数组{
-    id:(Number)标识
-    sideMenuLevel1Id:(Number)所属一级菜单标志
-    title:(String)二级菜单名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    statViewId:(Number)统计视图的id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    order:(Number)顺序，数组已经排好顺序
-    templateGroupId:(Number)模板组合的标志，在展示实体时的重要参数</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1543,12 +1491,131 @@
     <t>fields</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>id:(Number)标识
+title:(String)一级菜单名称
+order:(Number)顺序，返回的数组已经排好顺序
+authorities:(String)允许访问该菜单的用户权限
+level2s:(Array)二级菜单数组{
+    id:(Number)标识
+    sideMenuLevel1Id:(Number)所属一级菜单标志
+    title:(String)二级菜单名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    statViewId:(Number)统计视图的id</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    order:(Number)顺序，数组已经排好顺序
+    templateGroupId:(Number)模板组合的标志，在展示实体时的重要参数</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/meta/menu/get_blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非默认模式下传入的版块id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非默认模式下传入的菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版块数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentBlockId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前展示的模块id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentMenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前默认打开的二级菜单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,14 +1644,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1692,6 +1751,64 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2121,9 +2238,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,539 +2261,599 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2981,61 +3158,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="G3" s="111" t="s">
-        <v>111</v>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="G3" s="131" t="s">
+        <v>110</v>
       </c>
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="120" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="G4" s="112"/>
+      <c r="E4" s="133"/>
+      <c r="G4" s="132"/>
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="113"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="G5" s="112"/>
+      <c r="E5" s="133"/>
+      <c r="G5" s="132"/>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
+      <c r="G6" s="132"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3047,11 +3224,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="113"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3061,11 +3238,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="132"/>
       <c r="H8" s="52"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="113"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -3075,44 +3252,44 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="112"/>
+      <c r="G9" s="132"/>
       <c r="H9" s="52"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="114" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="80" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -3135,17 +3312,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3174,20 +3351,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="125" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="45"/>
@@ -3217,51 +3394,51 @@
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116"/>
+      <c r="B9" s="125" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="175"/>
+      <c r="E10" s="169"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="144"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="176" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="177"/>
+        <v>228</v>
+      </c>
+      <c r="D11" s="170" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="171"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="119" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3271,11 +3448,11 @@
         <v>63</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3287,7 +3464,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3299,7 +3476,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -3311,7 +3488,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="118"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3319,19 +3496,19 @@
         <v>54</v>
       </c>
       <c r="E17" s="49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="119"/>
+      <c r="C18" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="49" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="118"/>
-      <c r="C18" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3356,37 +3533,37 @@
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="127"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="46" t="s">
+      <c r="D25" s="107" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="E25" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="183" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="118"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="100" t="s">
         <v>103</v>
       </c>
@@ -3404,7 +3581,7 @@
       <c r="E27" s="105"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="100" t="s">
@@ -3414,7 +3591,7 @@
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="118"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="100" t="s">
         <v>69</v>
       </c>
@@ -3426,7 +3603,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="118"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="100" t="s">
         <v>70</v>
       </c>
@@ -3438,7 +3615,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="118"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="100" t="s">
         <v>71</v>
       </c>
@@ -3450,7 +3627,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="118"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="100" t="s">
         <v>72</v>
       </c>
@@ -3462,7 +3639,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="118"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="100" t="s">
         <v>74</v>
       </c>
@@ -3474,7 +3651,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="139"/>
+      <c r="B34" s="145"/>
       <c r="C34" s="15" t="s">
         <v>73</v>
       </c>
@@ -3498,55 +3675,55 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="122"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="124"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116"/>
+      <c r="B38" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="81"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="118" t="s">
+      <c r="B39" s="119" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="174" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="175"/>
+      <c r="E39" s="169"/>
       <c r="F39" s="81"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="118"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="129"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="81"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="130"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="132"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="138"/>
       <c r="F41" s="81"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="44" t="s">
@@ -3561,52 +3738,52 @@
       <c r="F42" s="81"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="118"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F43" s="86"/>
+    </row>
+    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="119"/>
+      <c r="C44" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="86"/>
-    </row>
-    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="118"/>
-      <c r="C44" s="44" t="s">
+      <c r="F44" s="86"/>
+    </row>
+    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="119"/>
+      <c r="C45" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="F44" s="86"/>
-    </row>
-    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="118"/>
-      <c r="C45" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="F45" s="81"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="137"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="138"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="144"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="44" t="s">
@@ -3620,7 +3797,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="139"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
       </c>
@@ -3644,28 +3821,28 @@
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="164"/>
+      <c r="C51" s="173"/>
+      <c r="D51" s="173"/>
+      <c r="E51" s="174"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="165" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="166"/>
-      <c r="D52" s="166"/>
-      <c r="E52" s="167"/>
+      <c r="B52" s="175" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="177"/>
     </row>
     <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="171" t="s">
-        <v>262</v>
-      </c>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
+      <c r="B53" s="181" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
+      <c r="E53" s="183"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
@@ -3691,11 +3868,11 @@
       <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="168" t="s">
+      <c r="C56" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="169"/>
-      <c r="E56" s="170"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="180"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
@@ -3705,20 +3882,20 @@
     </row>
     <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="164"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="174"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="165" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="166"/>
-      <c r="D60" s="166"/>
-      <c r="E60" s="167"/>
+      <c r="B60" s="175" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="177"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="17" t="s">
@@ -3741,7 +3918,7 @@
       <c r="E62" s="27"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3755,7 +3932,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="118"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
@@ -3767,7 +3944,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="142"/>
+      <c r="B65" s="146"/>
       <c r="C65" s="30" t="s">
         <v>67</v>
       </c>
@@ -3777,7 +3954,7 @@
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="142"/>
+      <c r="B66" s="146"/>
       <c r="C66" s="30" t="s">
         <v>58</v>
       </c>
@@ -3789,7 +3966,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="142"/>
+      <c r="B67" s="146"/>
       <c r="C67" s="30" t="s">
         <v>56</v>
       </c>
@@ -3801,7 +3978,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="142"/>
+      <c r="B68" s="146"/>
       <c r="C68" s="30" t="s">
         <v>57</v>
       </c>
@@ -3813,7 +3990,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="139"/>
+      <c r="B69" s="145"/>
       <c r="C69" s="15" t="s">
         <v>96</v>
       </c>
@@ -3826,6 +4003,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B23:E23"/>
@@ -3836,25 +4032,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B53:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3866,8 +4043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01CCA0E-2E7A-4B8E-9E4A-ABE08AE5322B}">
   <dimension ref="B2:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:E58"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3880,20 +4057,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="120" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
+      <c r="B3" s="122" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
+      <c r="B4" s="125" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="96" t="s">
@@ -3902,48 +4079,48 @@
       <c r="C5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="174" t="s">
+      <c r="D5" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="175"/>
+      <c r="E5" s="169"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="118"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="121"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="119" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="157" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="159"/>
+    </row>
+    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="119"/>
+      <c r="C8" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D8" s="157" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="149"/>
-    </row>
-    <row r="8" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="118"/>
-      <c r="C8" s="95" t="s">
+      <c r="E8" s="159"/>
+    </row>
+    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="119"/>
+      <c r="C9" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="D8" s="147" t="s">
+      <c r="D9" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="149"/>
-    </row>
-    <row r="9" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="118"/>
-      <c r="C9" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="147" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="149"/>
+      <c r="E9" s="159"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="96"/>
@@ -3952,7 +4129,7 @@
       <c r="E10" s="97"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="95" t="s">
@@ -3966,45 +4143,45 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="9" t="s">
+    </row>
+    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="145"/>
+      <c r="C13" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="139"/>
-      <c r="C13" s="109" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="125" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="99" t="s">
@@ -4013,44 +4190,44 @@
       <c r="C18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="168" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="169"/>
+    </row>
+    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="E18" s="175"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="118"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="119"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="118" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="100" t="s">
+      <c r="D20" s="157" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="159"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="119"/>
+      <c r="C21" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="147" t="s">
-        <v>282</v>
-      </c>
-      <c r="E20" s="149"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="118"/>
-      <c r="C21" s="100" t="s">
+      <c r="D21" s="157"/>
+      <c r="E21" s="159"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="119"/>
+      <c r="C22" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="149"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="118"/>
-      <c r="C22" s="100" t="s">
-        <v>281</v>
-      </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="149"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="159"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="99"/>
@@ -4059,7 +4236,7 @@
       <c r="E23" s="108"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="100" t="s">
@@ -4069,11 +4246,11 @@
         <v>5</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="143"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="100" t="s">
         <v>69</v>
       </c>
@@ -4085,7 +4262,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="143"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="100" t="s">
         <v>70</v>
       </c>
@@ -4097,7 +4274,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="143"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="100" t="s">
         <v>71</v>
       </c>
@@ -4109,7 +4286,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="143"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="100" t="s">
         <v>72</v>
       </c>
@@ -4121,7 +4298,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="143"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="100" t="s">
         <v>74</v>
       </c>
@@ -4133,7 +4310,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="143"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="100" t="s">
         <v>73</v>
       </c>
@@ -4145,57 +4322,57 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="143"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D31" s="107" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="147"/>
+      <c r="C32" s="100" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="143"/>
-      <c r="C32" s="100" t="s">
-        <v>286</v>
       </c>
       <c r="D32" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="185" t="s">
+      <c r="E32" s="115" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="160"/>
+      <c r="C33" s="116" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="156"/>
-      <c r="C33" s="186" t="s">
+      <c r="D33" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="E33" s="117" t="s">
         <v>289</v>
-      </c>
-      <c r="E33" s="187" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="124"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="125" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="122"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="114" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="99" t="s">
@@ -4204,47 +4381,47 @@
       <c r="C38" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="174" t="s">
+      <c r="D38" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="175"/>
+      <c r="E38" s="169"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="118"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="119"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="121"/>
     </row>
     <row r="40" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="188" t="s">
-        <v>294</v>
+      <c r="E40" s="118" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="120" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="122"/>
+      <c r="B43" s="122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="124"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="114" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
+      <c r="B44" s="125" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="127"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="99" t="s">
@@ -4253,106 +4430,106 @@
       <c r="C45" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="174" t="s">
+      <c r="D45" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="175"/>
+      <c r="E45" s="169"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="118"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="119"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="121"/>
     </row>
     <row r="47" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="188" t="s">
-        <v>304</v>
+        <v>177</v>
+      </c>
+      <c r="E47" s="118" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="124"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="125" t="s">
         <v>299</v>
       </c>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="122"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="114" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="116"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="127"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="142" t="s">
+      <c r="B52" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C52" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="174" t="s">
+      <c r="D52" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="175"/>
+      <c r="E52" s="169"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="144"/>
+      <c r="B53" s="148"/>
       <c r="C53" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="D53" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="D53" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="E53" s="177"/>
+      <c r="E53" s="171"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="118"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="119"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="121"/>
     </row>
     <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="188" t="s">
-        <v>297</v>
+      <c r="E55" s="118" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="120" t="s">
+      <c r="B58" s="122" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="124"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="125" t="s">
         <v>305</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="122"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="114" t="s">
-        <v>306</v>
-      </c>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="116"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="127"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="99" t="s">
@@ -4361,57 +4538,57 @@
       <c r="C60" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="174" t="s">
+      <c r="D60" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="175"/>
+      <c r="E60" s="169"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="118"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="119"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
+      <c r="E61" s="121"/>
     </row>
     <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="118" t="s">
-        <v>307</v>
+      <c r="B62" s="119" t="s">
+        <v>306</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E62" s="188" t="s">
-        <v>308</v>
+      <c r="E62" s="118" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="118"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="188" t="s">
-        <v>309</v>
+      <c r="E63" s="118" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="118"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="188" t="s">
-        <v>310</v>
+      <c r="E64" s="118" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="184"/>
+      <c r="B65" s="114"/>
       <c r="C65" s="100"/>
       <c r="D65" s="100"/>
       <c r="E65" s="101"/>
@@ -4421,97 +4598,66 @@
         <v>6</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="188" t="s">
-        <v>297</v>
+      <c r="E66" s="118" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="120" t="s">
+      <c r="B69" s="122" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" s="123"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="124"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="125" t="s">
         <v>311</v>
       </c>
-      <c r="C69" s="121"/>
-      <c r="D69" s="121"/>
-      <c r="E69" s="122"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="114" t="s">
-        <v>312</v>
-      </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="116"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="127"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="99" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="100" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" s="170" t="s">
         <v>301</v>
       </c>
-      <c r="D71" s="176" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="177"/>
+      <c r="E71" s="171"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="118"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="119"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="121"/>
     </row>
     <row r="73" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="188" t="s">
-        <v>297</v>
+      <c r="E73" s="118" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -4522,6 +4668,37 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="D71:E71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4550,19 +4727,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="164"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="178"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="180"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="186"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="187" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -4570,19 +4747,19 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="182"/>
+      <c r="B6" s="188"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -4590,7 +4767,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="144"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -4602,7 +4779,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="146" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -4610,7 +4787,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="156"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -4631,75 +4808,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068B2A5-9DCC-455B-8140-E85ECD702CAC}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="191"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="192" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="194"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="118"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="119"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="200"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="201" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="203" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>110</v>
+      <c r="E6" s="204" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="206" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="205" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="119"/>
+      <c r="C12" s="206" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="205" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="208" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="119"/>
+      <c r="C15" s="207" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="119"/>
+      <c r="C16" s="207" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="112" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="145"/>
+      <c r="C17" s="209" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="210" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" location="数据结构说明_版块" xr:uid="{8C587C1C-5016-4F39-9CAA-4633DF736639}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4722,20 +5008,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -4744,19 +5030,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="135"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4770,19 +5056,19 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="118"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
@@ -4794,27 +5080,27 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="113"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
@@ -4826,63 +5112,63 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="113"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="113"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="113"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="113"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="113"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4921,41 +5207,41 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="136"/>
+        <v>115</v>
+      </c>
+      <c r="D4" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="142"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4969,7 +5255,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -4977,17 +5263,17 @@
         <v>23</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="137"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="138"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="144"/>
     </row>
     <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4997,31 +5283,31 @@
         <v>15</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="139"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -5037,51 +5323,51 @@
       <c r="E13" s="63"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="136"/>
+        <v>115</v>
+      </c>
+      <c r="D16" s="131" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="142"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="137"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="138"/>
+      <c r="B17" s="143"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="144"/>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5125,20 +5411,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -5147,19 +5433,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="129"/>
+      <c r="E4" s="135"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -5173,7 +5459,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -5181,31 +5467,31 @@
         <v>21</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="133"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -5217,127 +5503,127 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>60</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="118"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="139"/>
+      <c r="B16" s="145"/>
       <c r="C16" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="120" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
+      <c r="B19" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="124"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
+      <c r="B20" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="129"/>
+      <c r="E21" s="135"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="143"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="148"/>
+      <c r="C23" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="144"/>
-      <c r="C23" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="150"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
@@ -5354,55 +5640,55 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="141"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="139"/>
+      <c r="B28" s="145"/>
       <c r="C28" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5433,217 +5719,217 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+    </row>
+    <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="158" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+    </row>
+    <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-    </row>
-    <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="148" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="159"/>
+    </row>
+    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="119"/>
+      <c r="C5" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="147" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="149"/>
-    </row>
-    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="118"/>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="159"/>
+    </row>
+    <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="119"/>
+      <c r="C6" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="149"/>
-    </row>
-    <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="118"/>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="157" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="159"/>
+    </row>
+    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="119"/>
+      <c r="C7" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D7" s="157" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="149"/>
-    </row>
-    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="118"/>
-      <c r="C7" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="147" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="149"/>
+      <c r="E7" s="159"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
     </row>
     <row r="9" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="33" t="s">
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="143"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="144"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="137"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="138"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>157</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="139"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="145" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
+      <c r="B15" s="155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="146" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
+      <c r="B16" s="156" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="120" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="147"/>
+        <v>150</v>
+      </c>
+      <c r="D17" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="157"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="113"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="147" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="147"/>
+      <c r="D18" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="157"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="131"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="120" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="113"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="120"/>
+      <c r="C22" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="91" t="s">
+      <c r="D22" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="91" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="113"/>
-      <c r="C22" s="88" t="s">
+    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="120"/>
+      <c r="C23" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E22" s="91" t="s">
+      <c r="D23" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E23" s="91" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="113"/>
-      <c r="C23" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="120" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="88" t="s">
@@ -5653,31 +5939,31 @@
         <v>27</v>
       </c>
       <c r="E25" s="90" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="113"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="89" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="113"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -5687,137 +5973,119 @@
       <c r="E28" s="69"/>
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
+      <c r="B30" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
     </row>
     <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="146" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
+      <c r="B31" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
     </row>
     <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="120" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="147"/>
+        <v>150</v>
+      </c>
+      <c r="D32" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="157"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="113"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="150" t="s">
+      <c r="D33" s="151" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="151"/>
+    </row>
+    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="120"/>
+      <c r="C34" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="151"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="137"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+    </row>
+    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="150"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="113"/>
-      <c r="C34" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="150"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-    </row>
-    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="151" t="s">
-        <v>176</v>
-      </c>
       <c r="C36" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="91" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="153"/>
+      <c r="C37" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" s="91" t="s">
+      <c r="D37" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="91" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="152"/>
-      <c r="C37" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="153"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="D38" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" s="94" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
@@ -5828,6 +6096,24 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5856,71 +6142,71 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+    </row>
+    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="158" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+    </row>
+    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="159"/>
+    </row>
+    <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="147"/>
+      <c r="C5" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-    </row>
-    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="148" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="147" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="149"/>
-    </row>
-    <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="143"/>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="159"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="147"/>
+      <c r="C6" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="159"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="148"/>
+      <c r="C7" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="149"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="143"/>
-      <c r="C6" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="147" t="s">
+      <c r="D7" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="149"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="144"/>
-      <c r="C7" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="154" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="155"/>
+      <c r="E7" s="162"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="44" t="s">
@@ -5934,7 +6220,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="143"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="75" t="s">
         <v>107</v>
       </c>
@@ -5946,19 +6232,19 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="143"/>
+      <c r="B11" s="147"/>
       <c r="C11" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="143"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
@@ -5966,17 +6252,17 @@
         <v>21</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="137"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="138"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="144"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -5986,11 +6272,11 @@
         <v>5</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="139"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
@@ -5998,25 +6284,25 @@
         <v>5</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="124"/>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="148" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="B19" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="48" t="s">
@@ -6025,16 +6311,16 @@
       <c r="C20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="147" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="149"/>
+      <c r="D20" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="E20" s="159"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="138"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="s">
@@ -6047,18 +6333,18 @@
         <v>43</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="137"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="138"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="144"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
@@ -6067,25 +6353,25 @@
         <v>5</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="148" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
+      <c r="B28" s="158" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="45" t="s">
@@ -6094,16 +6380,16 @@
       <c r="C29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="147" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="149"/>
+      <c r="D29" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="159"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="130"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="45" t="s">
@@ -6116,18 +6402,18 @@
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="137"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="138"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="144"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="142" t="s">
-        <v>177</v>
+      <c r="B33" s="146" t="s">
+        <v>176</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>3</v>
@@ -6136,23 +6422,35 @@
         <v>5</v>
       </c>
       <c r="E33" s="74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="156"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="E34" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -6163,18 +6461,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6199,107 +6485,107 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="135"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="148"/>
+      <c r="C5" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="128" t="s">
+      <c r="D5" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="129"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="144"/>
-      <c r="C5" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="141"/>
+      <c r="E5" s="150"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="132"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="138"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="120" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
+      <c r="B10" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116"/>
+      <c r="B11" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="146" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="135"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="148"/>
+      <c r="C13" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="129"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
-      <c r="C13" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="141"/>
+      <c r="E13" s="150"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="157"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="158"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="164"/>
     </row>
     <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="45" t="s">
@@ -6312,76 +6598,76 @@
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="138"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="135"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="148"/>
+      <c r="C23" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="128" t="s">
+      <c r="D23" s="149" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="129"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="144"/>
-      <c r="C23" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="141"/>
+      <c r="E23" s="150"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="157"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="158"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="164"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="44" t="s">
@@ -6391,38 +6677,38 @@
         <v>43</v>
       </c>
       <c r="E25" s="60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="143"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>193</v>
-      </c>
       <c r="E26" s="60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="148"/>
+      <c r="C27" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="73" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="144"/>
-      <c r="C27" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>202</v>
-      </c>
-    </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="130"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
     </row>
     <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="47" t="s">
@@ -6432,20 +6718,21 @@
         <v>26</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -6454,13 +6741,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6487,36 +6773,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="125" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="167"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="132"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="45" t="s">
@@ -6533,10 +6819,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="137"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="138"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="144"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
@@ -6549,41 +6835,41 @@
         <v>27</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
+      <c r="B12" s="125" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="127"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="161"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
@@ -6600,13 +6886,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="137"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="138"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="144"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="119" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -6620,7 +6906,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="118"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -6633,17 +6919,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
